--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1464,43 +1464,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.1015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.96875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>Organization.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -2985,19 +2989,19 @@
         <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3061,13 +3065,13 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3075,7 +3079,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3098,19 +3102,19 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>76</v>
@@ -3159,7 +3163,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3181,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3188,7 +3192,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3211,19 +3215,19 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3272,7 +3276,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3281,19 +3285,19 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3301,7 +3305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3324,19 +3328,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3385,7 +3389,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3394,19 +3398,19 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3418,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3437,13 +3441,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3494,7 +3498,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3523,7 +3527,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3552,7 +3556,7 @@
         <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>134</v>
@@ -3593,19 +3597,19 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3634,7 +3638,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3660,16 +3664,16 @@
         <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3682,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3694,13 +3698,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3718,7 +3722,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3733,13 +3737,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3747,7 +3751,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3773,13 +3777,13 @@
         <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3793,7 +3797,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3805,13 +3809,13 @@
         <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>76</v>
@@ -3829,7 +3833,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3844,10 +3848,10 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3858,7 +3862,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3881,19 +3885,19 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3906,7 +3910,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -3942,7 +3946,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3957,10 +3961,10 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3971,7 +3975,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3994,13 +3998,13 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4015,7 +4019,7 @@
         <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>76</v>
@@ -4051,7 +4055,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4066,13 +4070,13 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4080,11 +4084,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4103,13 +4107,13 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4124,7 +4128,7 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>76</v>
@@ -4160,7 +4164,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4175,13 +4179,13 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4189,11 +4193,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4212,16 +4216,16 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4235,7 +4239,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4275,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4286,10 +4290,10 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4300,11 +4304,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4323,13 +4327,13 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4380,7 +4384,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4395,13 +4399,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4409,11 +4413,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4432,13 +4436,13 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4453,7 +4457,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4489,7 +4493,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4504,13 +4508,13 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4522,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4541,16 +4545,16 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4600,7 +4604,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4615,13 +4619,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4629,7 +4633,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4652,17 +4656,17 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4675,7 +4679,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4711,7 +4715,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4726,13 +4730,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4740,7 +4744,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4763,17 +4767,17 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4822,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4840,7 +4844,7 @@
         <v>159</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>174</v>
@@ -4851,7 +4855,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4874,19 +4878,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4935,7 +4939,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4953,7 +4957,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4964,7 +4968,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4987,13 +4991,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5044,7 +5048,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5102,7 +5106,7 @@
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -5155,7 +5159,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5184,11 +5188,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5210,10 +5214,10 @@
         <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>134</v>
@@ -5268,7 +5272,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5297,7 +5301,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5323,14 +5327,14 @@
         <v>164</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5355,13 +5359,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5379,7 +5383,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5397,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5408,7 +5412,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5431,17 +5435,17 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5490,7 +5494,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5505,10 +5509,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5519,7 +5523,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5542,17 +5546,17 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -5601,7 +5605,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5616,10 +5620,10 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5630,7 +5634,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5653,17 +5657,17 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -5712,7 +5716,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5727,10 +5731,10 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5741,7 +5745,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5764,17 +5768,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5823,7 +5827,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-organization.xlsx
+++ b/branches/main/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
